--- a/nuno-dataset/test-ph-01/better_results.xlsx
+++ b/nuno-dataset/test-ph-01/better_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,430 +487,196 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>model_5_4_2</t>
+          <t>model_18_9_1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8015905807554089</v>
+        <v>0.8433405504116246</v>
       </c>
       <c r="D2" t="n">
-        <v>0.482208519093838</v>
+        <v>0.9135395356713721</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7012245228606002</v>
+        <v>0.8646544935114938</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5559436410197428</v>
+        <v>0.9194302232282202</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03711794689297676</v>
+        <v>0.02930746413767338</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1032603681087494</v>
+        <v>0.01816630363464355</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0323195718228817</v>
+        <v>0.01715651340782642</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06987633556127548</v>
+        <v>0.01769133284687996</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[55], regularizer=0.02, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>model_5_4_3</t>
+          <t>model_18_9_2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8007741137080174</v>
+        <v>0.8294068734138327</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4592349315435608</v>
+        <v>0.810312661143525</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6974567888513189</v>
+        <v>0.7152366589554267</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5393100103023423</v>
+        <v>0.8265517688727329</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0372706912457943</v>
+        <v>0.03191414475440979</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1078418791294098</v>
+        <v>0.03985542058944702</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03272714093327522</v>
+        <v>0.03609684854745865</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0724937841296196</v>
+        <v>0.03808537870645523</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[55], regularizer=0.02, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>model_5_4_0</t>
+          <t>model_23_9_20</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7960699905777058</v>
+        <v>0.8268504026940044</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8074014476751284</v>
+        <v>0.6923910203834513</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8650062694683551</v>
+        <v>0.2181995100318133</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8271087799009877</v>
+        <v>0.5549193596648414</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03815072402358055</v>
+        <v>0.03239240124821663</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03840889781713486</v>
+        <v>0.06760182976722717</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01460273750126362</v>
+        <v>0.07903875410556793</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02720601484179497</v>
+        <v>0.0729839876294136</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[60], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>model_5_3_15</t>
+          <t>model_23_9_19</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7834431838485729</v>
+        <v>0.8263765598445419</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7764276838708259</v>
+        <v>0.70410882917002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.472276288676703</v>
+        <v>0.2125857119472252</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7175089645390684</v>
+        <v>0.5616054166109892</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04051291570067406</v>
+        <v>0.03248104453086853</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04183010756969452</v>
+        <v>0.06502665579319</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03771825134754181</v>
+        <v>0.0796063020825386</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03989516571164131</v>
+        <v>0.07188759744167328</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[60], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>model_5_3_14</t>
+          <t>model_18_5_0</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.780775122638026</v>
+        <v>0.8233735545439531</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7751662144849105</v>
+        <v>0.5719545692101982</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5375325783029095</v>
+        <v>0.5990106877146713</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7321651942656926</v>
+        <v>0.5855203499207717</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04101204872131348</v>
+        <v>0.03304284065961838</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04206612706184387</v>
+        <v>0.0797971785068512</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0330541580915451</v>
+        <v>0.07992717623710632</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0378253199160099</v>
+        <v>0.07985831797122955</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>model_5_3_13</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7775953743276162</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.7746876767614267</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.5985393117266653</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.7463602504548894</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.04160691052675247</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.04215566068887711</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.02869379334151745</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.0358206070959568</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>model_5_3_12</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7735306174591479</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.7731666283234919</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.6517567520866403</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.757967649025363</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.04236733168363571</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.04244024679064751</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.02489015646278858</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.03418133407831192</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>model_5_4_1</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7692395065961471</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.7292857460380793</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.6357768723892145</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.7005439952330632</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.04317010194063187</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.05398708954453468</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.03939926996827126</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.04712214320898056</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>model_5_3_11</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7685821257157849</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.7708978768716802</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.6983188417065262</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.7674652083767819</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.04329308494925499</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.04286472499370575</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.02156220190227032</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.03284003213047981</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>model_5_3_10</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7620817803612135</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.7605177464770213</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.7372227137481955</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.7694499722023438</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0445091538131237</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.0448068380355835</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.01878160797059536</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.03255973011255264</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>model_5_3_9</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7546273485460325</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.7550909552972882</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.7574627100949813</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.7704647302561938</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.04590371251106262</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.04582218453288078</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.01733498461544514</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.03241642192006111</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[55], regularizer=0.02, learning_rate=0.1</t>
         </is>
       </c>
     </row>
